--- a/Sample Columns.xlsx
+++ b/Sample Columns.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF2780D-0593-4D2C-BC45-114FBF435013}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E5AEA-633E-4DAB-A374-F5C63FBFAA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2298" yWindow="2766" windowWidth="17280" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,100 +372,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>159</v>
       </c>
       <c r="B1">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>3359</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>9072</v>
       </c>
       <c r="B3">
         <v>8996</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>623</v>
       </c>
       <c r="B4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5">
         <v>324</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>6643</v>
       </c>
       <c r="B6">
         <v>88942</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>95585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>3213</v>
       </c>
       <c r="B8">
         <v>4324</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7732</v>
       </c>
       <c r="B9">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>7775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>952</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>3577</v>
       </c>
       <c r="B11">
         <v>91</v>
+      </c>
+      <c r="C11">
+        <v>3668</v>
       </c>
     </row>
   </sheetData>

--- a/Sample Columns.xlsx
+++ b/Sample Columns.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E5AEA-633E-4DAB-A374-F5C63FBFAA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68686CBF-31AA-4131-BC84-AF4F595DCD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2298" yWindow="2766" windowWidth="17280" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -371,10 +372,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F0F60-C4D8-4F94-B572-8947D59AE9D2}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>159</v>
+      </c>
+      <c r="B1">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>3359</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>9072</v>
+      </c>
+      <c r="B3">
+        <v>8996</v>
+      </c>
+      <c r="C3">
+        <v>18068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>623</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>324</v>
+      </c>
+      <c r="C5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>6643</v>
+      </c>
+      <c r="B6">
+        <v>88942</v>
+      </c>
+      <c r="C6">
+        <v>95585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>3213</v>
+      </c>
+      <c r="B8">
+        <v>4324</v>
+      </c>
+      <c r="C8">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7732</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>7775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>952</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>3577</v>
+      </c>
+      <c r="B11">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>3668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/Sample Columns.xlsx
+++ b/Sample Columns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68686CBF-31AA-4131-BC84-AF4F595DCD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C797AA9-EC11-4717-84EC-E3DF6BC57A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2298" yWindow="2766" windowWidth="17280" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2298" yWindow="2766" windowWidth="17280" windowHeight="9000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -375,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F0F60-C4D8-4F94-B572-8947D59AE9D2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -509,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -523,6 +525,7 @@
         <v>36</v>
       </c>
       <c r="C1">
+        <f t="shared" ref="C1:C10" si="0">SUM(A1,B1)</f>
         <v>195</v>
       </c>
     </row>
@@ -534,6 +537,7 @@
         <v>35</v>
       </c>
       <c r="C2">
+        <f t="shared" si="0"/>
         <v>3394</v>
       </c>
     </row>
@@ -545,6 +549,7 @@
         <v>8996</v>
       </c>
       <c r="C3">
+        <f t="shared" si="0"/>
         <v>18068</v>
       </c>
     </row>
@@ -556,6 +561,7 @@
         <v>56</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>679</v>
       </c>
     </row>
@@ -567,6 +573,7 @@
         <v>324</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
         <v>335</v>
       </c>
     </row>
@@ -578,6 +585,7 @@
         <v>88942</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
         <v>95585</v>
       </c>
     </row>
@@ -589,6 +597,7 @@
         <v>6</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -600,6 +609,7 @@
         <v>4324</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
         <v>7537</v>
       </c>
     </row>
@@ -611,6 +621,7 @@
         <v>43</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
         <v>7775</v>
       </c>
     </row>
@@ -622,6 +633,7 @@
         <v>13</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
         <v>965</v>
       </c>
     </row>
